--- a/biology/Zoologie/Chaerea_maritimus/Chaerea_maritimus.xlsx
+++ b/biology/Zoologie/Chaerea_maritimus/Chaerea_maritimus.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Chaerea maritimus, unique représentant du genre Chaerea, est une espèce d'araignées aranéomorphes de la famille des Dictynidae[1].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Chaerea maritimus, unique représentant du genre Chaerea, est une espèce d'araignées aranéomorphes de la famille des Dictynidae.
 </t>
         </is>
       </c>
@@ -511,9 +523,11 @@
           <t>Distribution</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cette espèce se rencontre en Algérie, en Espagne, en France, en Italie et en Grèce[1].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette espèce se rencontre en Algérie, en Espagne, en France, en Italie et en Grèce.
 </t>
         </is>
       </c>
@@ -542,9 +556,11 @@
           <t>Habitat</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cette espèce est halophile[2]. Elle se rencontre sur la côte.
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette espèce est halophile. Elle se rencontre sur la côte.
 </t>
         </is>
       </c>
@@ -573,10 +589,12 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le mâle syntype mesure 3 mm et la femelle syntype 3,5 mm[3].
-Les mâles mesurent de 2,1 à 2,3 mm et la femelle 2,73 mm[4].
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le mâle syntype mesure 3 mm et la femelle syntype 3,5 mm.
+Les mâles mesurent de 2,1 à 2,3 mm et la femelle 2,73 mm.
 </t>
         </is>
       </c>
@@ -605,10 +623,12 @@
           <t>Systématique et taxinomie</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t xml:space="preserve">Cette espèce a été décrite par Simon en 1885.
-Altella emilieae[4] a été placée en synonymie par Bosmans, Oger et Ponel en 2016[2].
+Altella emilieae a été placée en synonymie par Bosmans, Oger et Ponel en 2016.
 Ce genre a été décrit par Simon en 1885.
 </t>
         </is>
@@ -638,7 +658,9 @@
           <t>Publication originale</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
         <is>
           <t>Simon, 1885 : « Arachnides nouveaux d'Algérie. » Bulletin de la Société Zoologique de France, vol. 9, p. 321-327 (texte intégral).</t>
         </is>
